--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>288200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>307900</v>
+      </c>
+      <c r="F8" s="3">
         <v>393000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>370000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>264900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>262600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>372200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>320700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>244100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>299700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>354900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>568800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>241200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>280700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>356800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>261500</v>
+      </c>
+      <c r="F9" s="3">
         <v>340700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>345900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>245800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>248800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>374300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>309700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>227300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>288500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>326100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>533700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>227700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>259600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>318800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F10" s="3">
         <v>52300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>24100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>19100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>13800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>11000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>16800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>28800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>35100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>13500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>21100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>38000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1023,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>9400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>9900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>257900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>280800</v>
+      </c>
+      <c r="F17" s="3">
         <v>359900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>362600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>262000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>272200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>395900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>325500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>244100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>314400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>345400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>565900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>241900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>275900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>342400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F18" s="3">
         <v>33100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-23700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-14700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>14400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1278,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F21" s="3">
         <v>40000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>8800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-19500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>15400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>15700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>18500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1433,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F23" s="3">
         <v>32100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-26900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-19100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>12300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F24" s="3">
         <v>7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F26" s="3">
         <v>24400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-15700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F27" s="3">
         <v>24300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,55 +1751,67 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>200</v>
+      </c>
+      <c r="F29" s="3">
         <v>1000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>34100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>14800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-6600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>1400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-1200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-2800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F33" s="3">
         <v>25300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>14100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F35" s="3">
         <v>25300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>14100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F41" s="3">
         <v>13900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2328,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>121800</v>
+      </c>
+      <c r="F43" s="3">
         <v>86700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>123400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>79600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>85300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>84300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>101300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>90100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>67400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>68500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>97800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>79700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>146600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>67400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>423800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>411600</v>
+      </c>
+      <c r="F44" s="3">
         <v>493100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>575200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>493500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>501700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>575900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>683900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>569300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>547000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>770700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>656300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>633500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>628900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>699400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>36900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>52300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>111700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>167500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>16200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>523900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>551600</v>
+      </c>
+      <c r="F46" s="3">
         <v>600000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>723900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>593700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>603200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>710000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>850200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>679300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>741100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>855100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>936500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>731900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>719100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>793200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2593,67 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>329100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>322800</v>
+      </c>
+      <c r="F48" s="3">
         <v>322000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>314600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>324200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>239300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>246000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>242400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>272000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>258500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>272400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>253700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>269800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>237500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>218000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F52" s="3">
         <v>10700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>29300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>12900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>29200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>23700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>21600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>42500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>909300</v>
+      </c>
+      <c r="F54" s="3">
         <v>932700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1045700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>925300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>848900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>962100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1121900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>964200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1028800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1134200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1213900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1006900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>978300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1053700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +3010,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>71200</v>
+      </c>
+      <c r="F57" s="3">
         <v>84300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>195700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>77600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>61000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>93600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>212100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>98500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>56800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>102000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>224100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>109800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>72800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>98200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F58" s="3">
         <v>6600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>320600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>18800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>12400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>50200</v>
+      </c>
+      <c r="F59" s="3">
         <v>82100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>84800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>67600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>44600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>54600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>76700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>63000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>74400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>130300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>95900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>45700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>96400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>128200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>177800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>149700</v>
+      </c>
+      <c r="F60" s="3">
         <v>173000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>286600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>151900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>112400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>468800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>295500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>180300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>138600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>242000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>327200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>164200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>177800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>238800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>241400</v>
+      </c>
+      <c r="F61" s="3">
         <v>252300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>270800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>276600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>297200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>40400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>384300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>351700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>442100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>449200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>424100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>384300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>363300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>369600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>123800</v>
+      </c>
+      <c r="F62" s="3">
         <v>72100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>75600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>83100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>32800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>32300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>29800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>37100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>20600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>33100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>25000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>16100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>38700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>467900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>514900</v>
+      </c>
+      <c r="F66" s="3">
         <v>497500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>633000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>511500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>431400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>542000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>712100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>561900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>617800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>711800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>784400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>573400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>553100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>647100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3372,16 +3708,22 @@
         <v>700</v>
       </c>
       <c r="O70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="P70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="Q70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>480500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>459800</v>
+      </c>
+      <c r="F72" s="3">
         <v>438600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>413200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>408600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>409500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>418100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>404100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>395000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>403800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>401500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>407900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>409300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>401100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>400800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>414400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>393700</v>
+      </c>
+      <c r="F76" s="3">
         <v>434500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>412000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>413100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>416800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>419300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>409100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>401600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>410400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>421700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>428800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>432800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>423900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>405300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F81" s="3">
         <v>25300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>14100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,46 +4234,52 @@
         <v>7900</v>
       </c>
       <c r="E83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>15300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>6600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>6200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F89" s="3">
         <v>50700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>26800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>37800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>50700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-20300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-20200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>87000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-17800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>20400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>34000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>18700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-31200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-10200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-10500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-13700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-17500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-19500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>12500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>54800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-26400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-21400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-35000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-29000</v>
-      </c>
       <c r="G100" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-64500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-34400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>20600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-89400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>14500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>47100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-23900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>390300</v>
+      </c>
+      <c r="E8" s="3">
         <v>288200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>307900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>393000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>370000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>264900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>262600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>372200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>320700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>244100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>299700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>354900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>568800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>241200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>280700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>356800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E9" s="3">
         <v>239600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>261500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>340700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>345900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>245800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>248800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>374300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>309700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>227300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>288500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>326100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>533700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>227700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>259600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>318800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E10" s="3">
         <v>48600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,43 +1046,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
+        <v>300</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>9900</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
@@ -1074,16 +1094,19 @@
         <v>100</v>
       </c>
       <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>-900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E17" s="3">
         <v>257900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>280800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>359900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>362600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>262000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>272200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>395900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>325500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>244100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>314400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>345400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>565900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>241900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>275900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>342400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E18" s="3">
         <v>30300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-14700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,137 +1313,144 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3300</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>34900</v>
+        <v>33300</v>
       </c>
       <c r="E21" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F21" s="3">
         <v>34400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>40000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1439,114 +1479,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E23" s="3">
         <v>27000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>6300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>20700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E27" s="3">
         <v>20600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,23 +1815,26 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1781,28 +1842,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>34100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>14800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E33" s="3">
         <v>20600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="3">
         <v>20600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>11600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>12800</v>
       </c>
       <c r="K41" s="3">
         <v>12800</v>
       </c>
       <c r="L41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="M41" s="3">
         <v>12600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,220 +2424,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E43" s="3">
         <v>68900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>121800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>86700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>123400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>79600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>90100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>68500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>97800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>79700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>146600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>550700</v>
+      </c>
+      <c r="E44" s="3">
         <v>423800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>411600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>493100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>575200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>493500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>501700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>575900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>683900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>569300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>547000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>770700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>656300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>633500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>628900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>699400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
         <v>19500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>36900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>111700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>167500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>714500</v>
+      </c>
+      <c r="E46" s="3">
         <v>523900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>551600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>723900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>593700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>603200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>710000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>850200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>679300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>741100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>855100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>936500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>731900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>719100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>793200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,61 +2704,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>323900</v>
+      </c>
+      <c r="E48" s="3">
         <v>329100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>322800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>322000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>314600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>324200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>239300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>246000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>242400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>272000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>258500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>272400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>253700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>269800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>237500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>218000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E52" s="3">
         <v>30000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>42500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1066800</v>
+      </c>
+      <c r="E54" s="3">
         <v>883000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>909300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>932700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1045700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>925300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>848900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>962100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1121900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>964200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1028800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1134200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1213900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1006900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>978300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1053700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E57" s="3">
         <v>99600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>71200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>84300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>195700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>77600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>93600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>212100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>98500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>56800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>102000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>224100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>109800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>72800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>98200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E58" s="3">
         <v>6700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>28300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>320600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>12400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E59" s="3">
         <v>71500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>82100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>130300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>45700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>96400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>128200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>380600</v>
+      </c>
+      <c r="E60" s="3">
         <v>177800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>149700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>173000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>286600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>151900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>112400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>468800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>295500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>180300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>138600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>242000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>327200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>164200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>177800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>238800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E61" s="3">
         <v>167100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>241400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>252300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>270800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>276600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>297200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>384300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>351700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>442100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>449200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>424100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>384300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>363300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>369600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E62" s="3">
         <v>123000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>123800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>72100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>75600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>634800</v>
+      </c>
+      <c r="E66" s="3">
         <v>467900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>514900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>497500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>633000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>511500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>431400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>542000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>712100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>561900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>617800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>711800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>784400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>573400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>553100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>647100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3714,7 +3882,7 @@
         <v>700</v>
       </c>
       <c r="Q70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="R70" s="3">
         <v>1300</v>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>498600</v>
+      </c>
+      <c r="E72" s="3">
         <v>480500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>459800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>438600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>413200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>408600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>409500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>418100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>404100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>395000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>403800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>401500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>407900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>409300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>401100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>400800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>431400</v>
+      </c>
+      <c r="E76" s="3">
         <v>414400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>393700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>434500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>412000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>413100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>416800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>419300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>409100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>401600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>410400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>421700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>428800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>432800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>423900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>405300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E81" s="3">
         <v>20600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8000</v>
       </c>
       <c r="L83" s="3">
         <v>8000</v>
       </c>
       <c r="M83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>100300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>50700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>50700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>54800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-81100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-35000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-64500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-89400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>47100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>484400</v>
+      </c>
+      <c r="E8" s="3">
         <v>390300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>288200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>307900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>393000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>370000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>264900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>262600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>372200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>320700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>244100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>299700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>354900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>568800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>241200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>280700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>356800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>406700</v>
+      </c>
+      <c r="E9" s="3">
         <v>341400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>239600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>261500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>340700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>345900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>245800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>248800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>374300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>309700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>227300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>288500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>326100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>533700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>227700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>259600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>318800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E10" s="3">
         <v>48900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>48600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,46 +1065,49 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>9900</v>
-      </c>
-      <c r="O14" s="3">
-        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>100</v>
@@ -1097,16 +1116,19 @@
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>-900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>393800</v>
+      </c>
+      <c r="E17" s="3">
         <v>362600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>257900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>280800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>359900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>362600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>262000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>272200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>395900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>325500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>244100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>314400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>345400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>565900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>241900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>275900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>342400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E18" s="3">
         <v>27700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-14700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,147 +1346,154 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="R20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>33300</v>
+        <v>98500</v>
       </c>
       <c r="E21" s="3">
-        <v>36600</v>
+        <v>32200</v>
       </c>
       <c r="F21" s="3">
-        <v>34400</v>
+        <v>35200</v>
       </c>
       <c r="G21" s="3">
-        <v>40000</v>
+        <v>34700</v>
       </c>
       <c r="H21" s="3">
-        <v>13400</v>
+        <v>40300</v>
       </c>
       <c r="I21" s="3">
-        <v>8800</v>
+        <v>13700</v>
       </c>
       <c r="J21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1482,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E23" s="3">
         <v>23700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E24" s="3">
         <v>5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E26" s="3">
         <v>18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E27" s="3">
         <v>18000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1829,15 +1889,15 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -1845,28 +1905,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>34100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>14800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="R32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>4400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E33" s="3">
         <v>18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E35" s="3">
         <v>18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>12800</v>
       </c>
       <c r="L41" s="3">
         <v>12800</v>
       </c>
       <c r="M41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N41" s="3">
         <v>12600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E43" s="3">
         <v>134800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>68900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>121800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>123400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>79600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>101300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>90100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>68500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>97800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>79700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>146600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>410900</v>
+      </c>
+      <c r="E44" s="3">
         <v>550700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>423800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>411600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>493100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>575200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>493500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>501700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>575900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>683900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>569300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>547000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>770700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>656300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>633500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>628900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>699400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>167500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E46" s="3">
         <v>714500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>523900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>551600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>723900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>593700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>603200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>710000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>850200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>679300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>741100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>855100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>936500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>731900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>719100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>793200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,64 +2811,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E48" s="3">
         <v>323900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>329100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>322800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>322000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>314600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>324200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>239300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>246000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>242400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>272000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>258500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>272400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>253700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>269800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>237500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>218000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E52" s="3">
         <v>28400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>42500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>858500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1066800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>883000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>909300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>932700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1045700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>925300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>848900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>962100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1121900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>964200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1028800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1134200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1213900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1006900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>978300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1053700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E57" s="3">
         <v>230100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>99600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>71200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>84300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>195700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>77600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>93600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>212100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>98500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>56800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>102000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>224100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>109800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>72800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>98200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E58" s="3">
         <v>69600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>28300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>320600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>12400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E59" s="3">
         <v>80900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>82100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>84800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>130300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>95900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>45700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>96400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>128200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E60" s="3">
         <v>380600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>177800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>149700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>173000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>286600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>151900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>112400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>468800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>295500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>180300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>138600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>242000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>327200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>164200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>177800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>238800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E61" s="3">
         <v>131000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>167100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>241400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>252300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>270800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>276600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>297200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>384300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>351700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>442100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>449200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>424100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>384300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>363300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>369600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E62" s="3">
         <v>123200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>123000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>123800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>72100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>75600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E66" s="3">
         <v>634800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>467900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>514900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>497500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>633000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>511500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>431400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>542000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>712100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>561900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>617800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>711800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>784400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>573400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>553100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>647100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3885,7 +4052,7 @@
         <v>700</v>
       </c>
       <c r="R70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="S70" s="3">
         <v>1300</v>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E72" s="3">
         <v>498600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>480500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>459800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>438600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>413200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>408600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>409500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>418100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>404100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>395000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>403800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>401500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>407900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>409300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>401100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>400800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>502900</v>
+      </c>
+      <c r="E76" s="3">
         <v>431400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>414400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>393700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>434500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>412000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>413100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>416800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>419300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>409100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>401600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>410400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>421700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>428800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>432800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>423900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>405300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E81" s="3">
         <v>18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E83" s="3">
         <v>8200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>8000</v>
       </c>
       <c r="M83" s="3">
         <v>8000</v>
       </c>
       <c r="N83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>50700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>54800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E100" s="3">
         <v>24500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-81100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-35000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-64500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>20600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-89400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>47100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-23900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,296 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>304800</v>
+      </c>
+      <c r="F8" s="3">
         <v>484400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>390300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>288200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>307900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>393000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>370000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>264900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>262600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>372200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>320700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>244100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>299700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>354900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>568800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>241200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>280700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>356800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>247800</v>
+      </c>
+      <c r="F9" s="3">
         <v>406700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>341400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>239600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>261500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>340700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>345900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>245800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>248800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>374300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>309700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>227300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>288500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>326100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>533700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>227700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>259600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>318800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F10" s="3">
         <v>77700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>48900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>48600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>46400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>52300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>24100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>19100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>13800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>16800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>28800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>35100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>13500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>21100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>38000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1102,79 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>9400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>9900</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>-900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>272300</v>
+      </c>
+      <c r="F17" s="3">
         <v>393800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>362600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>257900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>280800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>359900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>362600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>262000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>272200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>395900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>325500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>244100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>314400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>345400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>565900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>241900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>275900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>342400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F18" s="3">
         <v>90600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>27700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>30300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>27100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>33100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-23700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4800</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-14700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>4800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>14400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,159 +1413,173 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>-3700</v>
+        <v>-13300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3000</v>
+        <v>-600</v>
       </c>
       <c r="G20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98500</v>
+        <v>27200</v>
       </c>
       <c r="E21" s="3">
-        <v>32200</v>
+        <v>27300</v>
       </c>
       <c r="F21" s="3">
-        <v>35200</v>
+        <v>98200</v>
       </c>
       <c r="G21" s="3">
+        <v>31900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>34900</v>
+      </c>
+      <c r="I21" s="3">
         <v>34700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>40300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>13700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-19500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-10700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>15400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>15700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>8500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>18500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1524,126 +1604,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F23" s="3">
         <v>90000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>23700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>27000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>32100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-26900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-19100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>12300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F24" s="3">
         <v>17500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F26" s="3">
         <v>72500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>18100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>21000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>24400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-15700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F27" s="3">
         <v>72200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>18000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>20600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>20900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>24300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>7700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,67 +1994,79 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>34100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>14800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-6600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>1400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-2800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2189,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>3700</v>
+        <v>13300</v>
       </c>
       <c r="F32" s="3">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F33" s="3">
         <v>72200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>18000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>20600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>21100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>25300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>14100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-14200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>7700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F35" s="3">
         <v>72200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>18000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>20600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>21100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>25300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>14100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-14200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>7700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2573,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="F41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>12800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>15100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>14900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>15800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>12000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>10300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2699,274 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>101500</v>
+      </c>
+      <c r="F43" s="3">
         <v>96600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>134800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>68900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>121800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>86700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>123400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>79600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>85300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>84300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>101300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>90100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>67400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>68500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>97800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>79700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>146600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>67400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>414700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>343100</v>
+      </c>
+      <c r="F44" s="3">
         <v>410900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>550700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>423800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>411600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>493100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>575200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>493500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>501700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>575900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>683900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>569300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>547000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>770700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>656300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>633500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>628900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>699400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F45" s="3">
         <v>14100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>19500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>36900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>52300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>111700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>167500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>16200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>559900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>516300</v>
+      </c>
+      <c r="F46" s="3">
         <v>535800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>714500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>523900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>551600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>723900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>593700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>603200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>710000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>850200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>679300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>741100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>855100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>936500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>731900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>719100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>793200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +3024,79 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>335800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>321400</v>
+      </c>
+      <c r="F48" s="3">
         <v>304000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>323900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>329100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>322800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>322000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>314600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>324200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>239300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>246000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>242400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>272000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>258500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>272400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>253700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>269800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>237500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>218000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3284,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>71700</v>
+      </c>
+      <c r="F52" s="3">
         <v>18700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>28400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>30000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>34900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>29300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>12900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>29200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>23700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>21600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>42500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>968300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>909300</v>
+      </c>
+      <c r="F54" s="3">
         <v>858500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1066800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>883000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>909300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>932700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1045700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>925300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>848900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>962100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1121900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>964200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1028800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1134200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1213900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1006900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>978300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1053700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3533,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>74100</v>
+      </c>
+      <c r="F57" s="3">
         <v>98800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>230100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>99600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>71200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>84300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>195700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>77600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>61000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>93600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>212100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>98500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>56800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>102000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>224100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>109800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>72800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>98200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F58" s="3">
         <v>11100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>69600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>28300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>320600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>18800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>9700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>8700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>8500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>12400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F59" s="3">
         <v>78100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>80900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>71500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>50200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>82100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>84800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>67600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>44600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>54600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>76700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>63000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>74400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>130300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>95900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>45700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>96400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>128200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>158100</v>
+      </c>
+      <c r="F60" s="3">
         <v>188100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>380600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>177800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>149700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>173000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>286600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>151900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>112400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>468800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>295500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>180300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>138600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>242000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>327200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>164200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>177800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>238800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>113300</v>
+      </c>
+      <c r="F61" s="3">
         <v>114600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>131000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>167100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>241400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>252300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>270800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>276600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>297200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>40400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>384300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>351700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>442100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>449200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>424100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>384300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>363300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>369600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F62" s="3">
         <v>52300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>123200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>123000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>123800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>72100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>75600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>83100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>21800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>32800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>32300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>29800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>37100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>20600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>33100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>25000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>16100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>38700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>380900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>331500</v>
+      </c>
+      <c r="F66" s="3">
         <v>355000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>634800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>467900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>514900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>497500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>633000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>511500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>431400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>542000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>712100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>561900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>617800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>711800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>784400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>573400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>553100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>647100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4055,16 +4391,22 @@
         <v>700</v>
       </c>
       <c r="S70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="T70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="U70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>585900</v>
+      </c>
+      <c r="F72" s="3">
         <v>571000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>498600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>480500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>459800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>438600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>413200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>408600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>409500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>418100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>404100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>395000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>403800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>401500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>407900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>409300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>401100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>400800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>586700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>577200</v>
+      </c>
+      <c r="F76" s="3">
         <v>502900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>431400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>414400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>393700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>434500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>412000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>413100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>416800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>419300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>409100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>401600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>410400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>421700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>428800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>432800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>423900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>405300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F81" s="3">
         <v>72200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>18000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>20600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>21100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>25300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>14100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-14200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>7700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +5018,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8300</v>
       </c>
       <c r="H83" s="3">
         <v>7900</v>
       </c>
       <c r="I83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>8400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>15300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>6600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>6200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>80100</v>
+      </c>
+      <c r="F89" s="3">
         <v>16100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-13300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>100300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>50700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>37800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>50700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-20300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-20200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>87000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>13600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-17800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>20400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>34000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>18700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5498,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-12800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-19200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-31200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-9900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-13700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-17500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-17700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5689,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F94" s="3">
         <v>58900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-17700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-19500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>12500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>54800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-11300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-26400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-21400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-8400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6039,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-75700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>24500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-81100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-35000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-32400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-20000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-64500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-34400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>20600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-89400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>14500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>47100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-23900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-9800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>372300</v>
+      </c>
+      <c r="E8" s="3">
         <v>235000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>304800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>484400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>390300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>288200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>307900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>393000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>370000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>264900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>262600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>372200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>320700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>244100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>299700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>354900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>568800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>241200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>280700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>356800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>329500</v>
+      </c>
+      <c r="E9" s="3">
         <v>201400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>247800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>406700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>341400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>239600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>261500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>340700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>345900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>245800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>248800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>374300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>309700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>227300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>288500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>326100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>533700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>227700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>259600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>318800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E10" s="3">
         <v>33600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>77700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>48900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>48600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>46400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>38000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,55 +1125,58 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-35800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>300</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
+        <v>300</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>9900</v>
-      </c>
-      <c r="R14" s="3">
-        <v>100</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
@@ -1165,16 +1185,19 @@
         <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>-900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E17" s="3">
         <v>217300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>272300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>393800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>362600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>257900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>280800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>359900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>362600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>262000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>272200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>395900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>325500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>244100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>314400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>345400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>565900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>241900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>275900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>342400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E18" s="3">
         <v>17700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>90600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>33100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4800</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-14700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1448,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-700</v>
       </c>
       <c r="J20" s="3">
         <v>-700</v>
       </c>
       <c r="K20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E21" s="3">
         <v>27200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>98200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>40300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,8 +1605,8 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>300</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1575,14 +1615,14 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1610,138 +1650,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E23" s="3">
         <v>18600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>90000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E26" s="3">
         <v>14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E27" s="3">
         <v>14100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>72200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,19 +2058,22 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2020,15 +2081,15 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2036,28 +2097,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>34100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>14800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>700</v>
       </c>
       <c r="J32" s="3">
         <v>700</v>
       </c>
       <c r="K32" s="3">
+        <v>700</v>
+      </c>
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E33" s="3">
         <v>14100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>72200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E35" s="3">
         <v>14100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>72200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59800</v>
+        <v>11300</v>
       </c>
       <c r="E41" s="3">
         <v>59800</v>
       </c>
       <c r="F41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="G41" s="3">
         <v>14100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>12800</v>
       </c>
       <c r="O41" s="3">
         <v>12800</v>
       </c>
       <c r="P41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="Q41" s="3">
         <v>12600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,268 +2795,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E43" s="3">
         <v>72100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>101500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>96600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>134800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>68900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>121800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>86700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>123400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>79600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>85300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>84300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>101300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>90100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>68500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>97800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>79700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>146600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>67400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>608200</v>
+      </c>
+      <c r="E44" s="3">
         <v>414700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>343100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>410900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>550700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>423800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>411600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>493100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>575200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>493500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>501700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>575900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>683900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>569300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>547000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>770700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>656300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>633500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>628900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>699400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>13300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>111700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>167500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>783300</v>
+      </c>
+      <c r="E46" s="3">
         <v>559900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>516300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>535800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>714500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>523900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>551600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>723900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>593700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>603200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>710000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>850200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>679300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>741100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>855100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>936500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>731900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>719100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>793200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,73 +3135,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>340300</v>
+      </c>
+      <c r="E48" s="3">
         <v>335800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>321400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>304000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>323900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>329100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>322800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>322000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>314600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>324200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>239300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>246000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>242400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>272000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>258500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>272400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>253700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>269800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>237500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>218000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E52" s="3">
         <v>72600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>34900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>42500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1188400</v>
+      </c>
+      <c r="E54" s="3">
         <v>968300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>909300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>858500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1066800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>883000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>909300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>932700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1045700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>925300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>848900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>962100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1121900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>964200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1028800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1134200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1213900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1006900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>978300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1053700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3665,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>268900</v>
+      </c>
+      <c r="E57" s="3">
         <v>125600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>98800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>230100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>99600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>71200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>84300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>195700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>77600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>93600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>212100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>98500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>56800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>102000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>224100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>109800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>72800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>98200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E58" s="3">
         <v>11700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>28300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>69600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>28300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>320600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>12400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E59" s="3">
         <v>64400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>78100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>80900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>82100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>63000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>130300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>95900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>45700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>96400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>128200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>372200</v>
+      </c>
+      <c r="E60" s="3">
         <v>201700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>158100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>188100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>380600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>177800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>149700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>173000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>286600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>151900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>112400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>468800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>295500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>180300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>138600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>242000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>327200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>164200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>177800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>238800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E61" s="3">
         <v>116100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>113300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>114600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>131000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>167100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>241400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>252300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>270800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>276600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>297200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>384300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>351700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>442100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>449200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>424100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>384300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>363300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>369600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E62" s="3">
         <v>63100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>60100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>123200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>123000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>123800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>75600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>38700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>602100</v>
+      </c>
+      <c r="E66" s="3">
         <v>380900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>331500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>355000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>634800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>467900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>514900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>497500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>633000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>511500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>431400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>542000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>712100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>561900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>617800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>711800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>784400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>573400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>553100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>647100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4397,7 +4565,7 @@
         <v>700</v>
       </c>
       <c r="U70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="V70" s="3">
         <v>1300</v>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>611700</v>
+      </c>
+      <c r="E72" s="3">
         <v>600000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>585900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>571000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>498600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>480500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>459800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>438600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>413200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>408600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>409500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>418100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>404100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>395000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>403800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>401500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>407900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>409300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>401100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>400800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>585700</v>
+      </c>
+      <c r="E76" s="3">
         <v>586700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>577200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>502900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>431400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>414400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>393700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>434500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>412000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>413100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>416800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>419300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>409100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>401600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>410400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>421700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>428800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>432800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>423900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>405300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E81" s="3">
         <v>14100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>72200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8000</v>
       </c>
       <c r="P83" s="3">
         <v>8000</v>
       </c>
       <c r="Q83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R83" s="3">
         <v>8400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E89" s="3">
         <v>21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>80100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>34000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5922,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5704,64 +5934,67 @@
         <v>-11800</v>
       </c>
       <c r="E94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-30400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>58900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>54800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-75700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-81100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-35000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-64500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>14500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>47100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-23900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-48600</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>45700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>445600</v>
+      </c>
+      <c r="E8" s="3">
         <v>372300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>235000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>304800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>484400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>390300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>288200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>307900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>393000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>370000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>264900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>262600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>372200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>320700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>244100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>299700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>354900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>568800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>241200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>280700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>356800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400600</v>
+      </c>
+      <c r="E9" s="3">
         <v>329500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>201400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>247800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>406700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>341400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>239600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>261500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>340700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>345900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>245800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>248800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>374300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>309700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>227300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>288500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>326100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>533700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>227700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>259600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>318800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E10" s="3">
         <v>42800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>77700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>48900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>48600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>46400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>38000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,58 +1144,61 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-35800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>300</v>
       </c>
       <c r="J14" s="3">
         <v>300</v>
       </c>
       <c r="K14" s="3">
+        <v>300</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>9900</v>
-      </c>
-      <c r="S14" s="3">
-        <v>100</v>
       </c>
       <c r="T14" s="3">
         <v>100</v>
@@ -1188,16 +1207,19 @@
         <v>100</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>-900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>421900</v>
+      </c>
+      <c r="E17" s="3">
         <v>350400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>217300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>272300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>393800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>362600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>257900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>280800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>359900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>362600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>262000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>272200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>395900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>325500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>244100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>314400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>345400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>565900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>241900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>275900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>342400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E18" s="3">
         <v>21900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>90600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-14700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-700</v>
       </c>
       <c r="K20" s="3">
         <v>-700</v>
       </c>
       <c r="L20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E21" s="3">
         <v>24300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>98200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>34700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,8 +1647,8 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>300</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1618,14 +1657,14 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1653,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E23" s="3">
         <v>15200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>90000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E26" s="3">
         <v>11700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>72500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E27" s="3">
         <v>11600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>72200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2072,11 +2132,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2084,15 +2144,15 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2100,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>34100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>14800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-6600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-2800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>6600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>700</v>
       </c>
       <c r="K32" s="3">
         <v>700</v>
       </c>
       <c r="L32" s="3">
+        <v>700</v>
+      </c>
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E33" s="3">
         <v>11600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>72200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E35" s="3">
         <v>11600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>72200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>59800</v>
       </c>
       <c r="F41" s="3">
         <v>59800</v>
       </c>
       <c r="G41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="H41" s="3">
         <v>14100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>12800</v>
       </c>
       <c r="P41" s="3">
         <v>12800</v>
       </c>
       <c r="Q41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="R41" s="3">
         <v>12600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,280 +2887,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E43" s="3">
         <v>151600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>101500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>96600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>134800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>68900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>121800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>86700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>123400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>79600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>85300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>84300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>101300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>90100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>68500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>97800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>79700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>146600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>67400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E44" s="3">
         <v>608200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>414700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>343100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>410900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>550700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>423800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>411600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>493100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>575200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>493500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>501700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>575900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>683900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>569300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>547000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>770700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>656300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>633500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>628900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>699400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>111700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>167500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>605200</v>
+      </c>
+      <c r="E46" s="3">
         <v>783300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>559900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>516300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>535800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>714500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>523900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>551600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>723900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>593700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>603200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>710000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>850200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>679300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>741100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>855100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>936500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>731900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>719100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>793200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,76 +3242,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>332600</v>
+      </c>
+      <c r="E48" s="3">
         <v>340300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>335800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>321400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>304000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>323900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>329100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>322800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>322000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>314600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>324200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>239300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>246000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>242400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>272000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>258500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>272400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>253700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>269800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>237500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>218000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E52" s="3">
         <v>64900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>72600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>34900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>23700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>21600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>42500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1002400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1188400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>968300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>909300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>858500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1066800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>883000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>909300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>932700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1045700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>925300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>848900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>962100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1121900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>964200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1028800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1134200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1213900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1006900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>978300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1053700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E57" s="3">
         <v>268900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>125600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>98800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>230100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>99600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>71200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>84300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>195700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>77600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>61000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>93600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>212100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>98500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>56800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>102000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>224100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>109800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>72800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>98200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E58" s="3">
         <v>12300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>28300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>69600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>320600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>12400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E59" s="3">
         <v>91000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>78100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>80900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>82100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>44600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>63000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>130300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>95900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>45700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>96400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>128200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>199900</v>
+      </c>
+      <c r="E60" s="3">
         <v>372200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>201700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>158100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>188100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>380600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>177800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>149700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>173000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>286600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>151900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>112400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>468800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>295500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>180300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>138600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>242000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>327200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>164200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>177800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>238800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E61" s="3">
         <v>166300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>116100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>113300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>114600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>131000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>167100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>241400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>252300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>270800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>276600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>297200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>384300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>351700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>442100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>449200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>424100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>384300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>363300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>369600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E62" s="3">
         <v>63600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>60100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>123200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>123000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>123800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>38700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>407800</v>
+      </c>
+      <c r="E66" s="3">
         <v>602100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>380900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>331500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>355000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>634800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>467900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>514900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>497500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>633000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>511500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>431400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>542000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>712100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>561900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>617800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>711800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>784400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>573400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>553100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>647100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,13 +4672,16 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E70" s="3">
         <v>700</v>
@@ -4568,7 +4735,7 @@
         <v>700</v>
       </c>
       <c r="V70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="W70" s="3">
         <v>1300</v>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>630300</v>
+      </c>
+      <c r="E72" s="3">
         <v>611700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>600000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>585900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>571000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>498600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>480500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>459800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>438600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>413200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>408600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>409500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>418100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>404100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>395000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>403800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>401500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>407900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>409300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>401100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>400800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>593900</v>
+      </c>
+      <c r="E76" s="3">
         <v>585700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>586700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>577200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>502900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>431400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>414400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>393700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>434500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>412000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>413100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>416800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>419300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>409100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>401600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>410400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>421700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>428800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>432800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>423900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>405300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E81" s="3">
         <v>11600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>72200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>9100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>8000</v>
       </c>
       <c r="Q83" s="3">
         <v>8000</v>
       </c>
       <c r="R83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S83" s="3">
         <v>8400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-71600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>80100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>34000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11800</v>
+        <v>-8100</v>
       </c>
       <c r="E94" s="3">
         <v>-11800</v>
       </c>
       <c r="F94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-30400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>58900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>54800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E100" s="3">
         <v>34800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-75700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-81100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-35000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-64500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>20600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-89400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>47100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-23900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>45700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,347 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>265200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>332400</v>
+      </c>
+      <c r="F8" s="3">
         <v>445600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>372300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>235000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>304800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>484400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>390300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>288200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>307900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>393000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>370000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>264900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>262600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>372200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>320700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>244100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>299700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>354900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>568800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>241200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>280700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>356800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>242400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>305800</v>
+      </c>
+      <c r="F9" s="3">
         <v>400600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>329500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>201400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>247800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>406700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>341400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>239600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>261500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>340700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>345900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>245800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>248800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>374300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>309700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>227300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>288500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>326100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>533700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>227700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>259600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>318800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F10" s="3">
         <v>45000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>42800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>33600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>57000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>77700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>48900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>48600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>46400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>52300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>19100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>13800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>16800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>11200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>28800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>35100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>13500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>21100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>38000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,79 +1181,91 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-35800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>4800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>9400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>9900</v>
-      </c>
-      <c r="T14" s="3">
-        <v>100</v>
-      </c>
-      <c r="U14" s="3">
-        <v>100</v>
       </c>
       <c r="V14" s="3">
         <v>100</v>
       </c>
       <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>1300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1365,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>258600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>325300</v>
+      </c>
+      <c r="F17" s="3">
         <v>421900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>350400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>217300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>272300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>393800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>362600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>257900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>280800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>359900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>362600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>262000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>272200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>395900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>325500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>244100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>314400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>345400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>565900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>241900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>275900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>342400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F18" s="3">
         <v>23700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>21900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>17700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>32500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>90600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>27700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>30300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>27100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>33100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-9600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4800</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-14700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>9500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>4800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>14400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1548,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-13300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F21" s="3">
         <v>33700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>24300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>27200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>27300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>98200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>31900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>34900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>34700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>40300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>13700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-10700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>15400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>15700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>5800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>8500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>18500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,27 +1730,27 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1695,150 +1775,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F23" s="3">
         <v>24400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>15200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>18600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>19300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>90000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>23700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>27000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>32100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-11800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-19100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>12300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="3">
         <v>5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>17500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-3500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>4500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F26" s="3">
         <v>18700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>11700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>14100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>14800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>72500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>18100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>24400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-15700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>8900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>7800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F27" s="3">
         <v>18600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>11600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>14100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>14800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>72200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>20600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>20900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>24300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-15600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>8800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>7700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2135,65 +2257,71 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>34100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>14800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-6600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>1400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-1200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-2800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2468,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>13300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F33" s="3">
         <v>18600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>11600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>14100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>14800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>72200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>20600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>21100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>25300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>14100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-14200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>7700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>7700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2699,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F35" s="3">
         <v>18600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>11600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>14100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>14800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>72200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>20600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>21100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>25300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>14100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-14200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>7700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>7700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F41" s="3">
         <v>11000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>59800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>59800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>14800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>17600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>16900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>12800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>15100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>13100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>14900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>15800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>12000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>10300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +3070,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>124000</v>
+      </c>
+      <c r="F43" s="3">
         <v>95300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>151600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>72100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>101500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>96600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>134800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>68900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>121800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>86700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>123400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>79600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>85300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>84300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>101300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>90100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>67400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>68500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>97800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>79700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>146600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>67400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>523400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>410300</v>
+      </c>
+      <c r="F44" s="3">
         <v>482000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>608200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>414700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>343100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>410900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>550700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>423800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>411600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>493100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>575200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>493500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>501700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>575900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>683900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>569300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>547000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>770700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>656300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>633500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>628900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>699400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>14100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>19500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>36900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>52300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>111700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>167500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>3700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>16200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>633900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>555400</v>
+      </c>
+      <c r="F46" s="3">
         <v>605200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>783300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>559900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>516300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>535800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>714500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>523900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>551600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>723900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>593700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>603200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>710000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>850200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>679300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>741100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>855100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>936500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>731900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>719100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>793200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,79 +3455,91 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>344500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>336900</v>
+      </c>
+      <c r="F48" s="3">
         <v>332600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>340300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>335800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>321400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>304000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>323900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>329100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>322800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>322000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>314600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>324200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>239300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>246000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>242400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>272000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>258500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>272400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>253700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>269800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>237500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>218000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3609,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3763,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>54700</v>
+      </c>
+      <c r="F52" s="3">
         <v>64600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>64900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>72600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>71700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>18700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>28400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>30000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>34900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>29300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>12900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>29200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>6800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>23700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>21600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>42500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3917,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1032300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>947000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1002400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1188400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>968300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>909300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>858500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1066800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>883000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>909300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>932700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1045700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>925300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>848900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>962100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1121900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>964200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1028800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1134200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1213900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1006900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>978300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1053700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +4056,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>87600</v>
+      </c>
+      <c r="F57" s="3">
         <v>111300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>268900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>125600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>74100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>98800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>230100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>99600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>71200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>84300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>195700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>77600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>61000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>93600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>212100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>98500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>56800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>102000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>224100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>109800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>72800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>98200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F58" s="3">
         <v>12400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>12300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>11700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>28300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>11100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>69600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>28300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>320600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>18800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>9700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>7200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>8700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>8500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>12400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>59500</v>
+      </c>
+      <c r="F59" s="3">
         <v>76200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>91000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>64400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>55700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>78100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>80900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>71500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>50200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>82100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>84800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>67600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>44600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>54600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>76700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>63000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>74400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>130300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>95900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>45700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>96400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>128200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>173200</v>
+      </c>
+      <c r="F60" s="3">
         <v>199900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>372200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>201700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>158100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>188100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>380600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>177800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>149700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>173000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>286600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>151900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>112400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>468800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>295500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>180300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>138600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>242000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>327200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>164200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>177800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>238800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>129600</v>
+      </c>
+      <c r="F61" s="3">
         <v>145400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>166300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>116100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>113300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>114600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>131000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>167100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>241400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>252300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>270800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>276600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>297200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>40400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>384300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>351700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>442100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>449200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>424100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>384300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>363300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>369600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>60500</v>
+      </c>
+      <c r="F62" s="3">
         <v>62500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>63600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>63100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>60100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>52300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>123200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>123000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>123800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>72100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>75600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>83100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>21800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>32800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>32300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>29800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>37100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>20600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>33100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>25000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>16100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>38700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>363200</v>
+      </c>
+      <c r="F66" s="3">
         <v>407800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>602100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>380900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>331500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>355000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>634800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>467900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>514900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>497500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>633000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>511500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>431400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>542000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>712100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>561900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>617800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>711800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>784400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>573400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>553100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>647100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4684,10 +5020,10 @@
         <v>600</v>
       </c>
       <c r="E70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G70" s="3">
         <v>700</v>
@@ -4738,16 +5074,22 @@
         <v>700</v>
       </c>
       <c r="W70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="X70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="Y70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>641900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>636900</v>
+      </c>
+      <c r="F72" s="3">
         <v>630300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>611700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>600000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>585900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>571000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>498600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>480500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>459800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>438600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>413200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>408600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>409500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>418100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>404100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>395000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>403800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>401500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>407900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>409300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>401100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>400800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>572500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>583200</v>
+      </c>
+      <c r="F76" s="3">
         <v>593900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>585700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>586700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>577200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>502900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>431400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>414400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>393700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>434500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>412000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>413100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>416800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>419300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>409100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>401600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>410400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>421700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>428800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>432800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>423900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>405300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5621,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F81" s="3">
         <v>18600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>11600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>14100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>14800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>72200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>20600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>21100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>25300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>14100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-14200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>7700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>7700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5813,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F83" s="3">
         <v>9400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8300</v>
       </c>
       <c r="L83" s="3">
         <v>7900</v>
       </c>
       <c r="M83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>8400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>15300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>7700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>6600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>6200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F89" s="3">
         <v>38900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-71600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>21600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>80100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>16100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>100300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>50700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>26800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>37800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>50700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-20200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>87000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-9000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-17800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>20400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>34000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>18700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6381,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-13200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-31300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-12800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-19200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-31200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-9900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-10500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-11500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-7400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-13700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-8700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-17500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-17700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6608,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-11800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-11800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-30400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>58900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-17700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-19500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>12500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>54800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-11300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-7300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-26400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-21400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-8400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7022,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-31100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>34800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-9800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-75700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>24500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-81100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-35000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-32400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-20000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-64500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>20600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-89400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>14500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>47100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>4700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-23900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7176,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-48600</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>45700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>3800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,359 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>439800</v>
+      </c>
+      <c r="E8" s="3">
         <v>265200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>332400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>445600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>372300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>235000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>304800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>484400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>390300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>288200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>307900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>393000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>370000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>264900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>262600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>372200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>320700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>244100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>299700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>354900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>568800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>241200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>280700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>356800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>398100</v>
+      </c>
+      <c r="E9" s="3">
         <v>242400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>305800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>329500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>201400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>247800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>406700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>341400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>239600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>261500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>340700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>345900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>245800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>248800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>374300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>309700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>227300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>288500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>326100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>533700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>227700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>259600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>318800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E10" s="3">
         <v>22900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>77700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>48900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>48600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>46400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>28800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>21100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>38000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,67 +1203,70 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-35800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
-      </c>
-      <c r="L14" s="3">
-        <v>300</v>
       </c>
       <c r="M14" s="3">
         <v>300</v>
       </c>
       <c r="N14" s="3">
+        <v>300</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>9900</v>
-      </c>
-      <c r="V14" s="3">
-        <v>100</v>
       </c>
       <c r="W14" s="3">
         <v>100</v>
@@ -1256,16 +1275,19 @@
         <v>100</v>
       </c>
       <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>258600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>325300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>421900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>350400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>217300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>272300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>393800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>362600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>257900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>280800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>359900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>362600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>262000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>272200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>395900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>325500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>244100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>314400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>345400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>565900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>241900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>275900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>342400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>90600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-23700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4800</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-14700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-700</v>
       </c>
       <c r="N20" s="3">
         <v>-700</v>
       </c>
       <c r="O20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>16500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>33700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>98200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-19500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>15400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>18500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1736,8 +1775,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>300</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
@@ -1746,14 +1785,14 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1781,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>90000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-26900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>12300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2263,11 +2323,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2275,15 +2335,15 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2291,28 +2351,28 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>34100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>14800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-6600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-1200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-2800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>700</v>
       </c>
       <c r="N32" s="3">
         <v>700</v>
       </c>
       <c r="O32" s="3">
+        <v>700</v>
+      </c>
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>72200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>72200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E41" s="3">
         <v>12200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>59800</v>
       </c>
       <c r="I41" s="3">
         <v>59800</v>
       </c>
       <c r="J41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K41" s="3">
         <v>14100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>12800</v>
       </c>
       <c r="S41" s="3">
         <v>12800</v>
       </c>
       <c r="T41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="U41" s="3">
         <v>12600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,316 +3165,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E43" s="3">
         <v>89300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>124000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>95300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>151600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>101500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>96600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>134800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>68900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>121800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>123400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>79600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>85300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>84300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>101300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>90100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>67400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>68500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>97800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>79700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>146600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>67400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>821300</v>
+      </c>
+      <c r="E44" s="3">
         <v>523400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>410300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>482000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>608200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>414700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>343100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>410900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>550700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>423800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>411600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>493100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>575200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>493500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>501700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>575900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>683900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>569300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>547000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>770700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>656300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>633500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>628900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>699400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>111700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>167500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1004900</v>
+      </c>
+      <c r="E46" s="3">
         <v>633900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>555400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>605200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>783300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>559900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>516300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>535800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>714500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>523900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>551600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>723900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>593700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>603200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>710000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>850200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>679300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>741100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>855100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>936500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>731900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>719100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>793200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,85 +3565,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E48" s="3">
         <v>344500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>336900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>332600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>340300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>335800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>321400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>304000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>323900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>329100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>322800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>322000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>314600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>324200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>239300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>246000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>242400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>272000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>258500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>272400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>253700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>269800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>237500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>218000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E52" s="3">
         <v>53900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>64600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>64900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>72600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>29200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>23700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>21600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>42500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1402900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1032300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>947000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1002400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1188400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>968300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>909300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>858500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1066800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>883000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>909300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>932700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1045700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>925300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>848900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>962100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1121900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>964200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1028800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1134200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1213900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1006900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>978300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1053700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>345200</v>
+      </c>
+      <c r="E57" s="3">
         <v>142200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>111300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>268900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>125600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>98800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>230100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>99600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>71200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>84300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>195700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>77600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>61000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>93600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>212100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>98500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>56800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>102000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>224100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>109800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>72800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>98200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E58" s="3">
         <v>25000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>28300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>69600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>320600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>12400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E59" s="3">
         <v>48700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>76200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>91000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>55700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>78100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>82100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>84800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>67600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>44600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>76700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>74400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>130300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>95900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>45700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>96400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>128200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>445400</v>
+      </c>
+      <c r="E60" s="3">
         <v>216000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>173200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>199900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>372200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>201700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>158100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>188100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>380600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>177800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>149700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>173000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>286600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>151900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>112400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>468800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>295500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>180300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>138600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>242000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>327200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>164200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>177800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>238800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>334600</v>
+      </c>
+      <c r="E61" s="3">
         <v>185500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>129600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>145400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>166300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>116100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>113300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>114600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>131000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>167100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>241400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>252300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>270800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>276600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>297200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>40400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>384300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>351700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>442100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>449200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>424100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>384300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>363300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>369600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E62" s="3">
         <v>57700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>60500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>62500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>60100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>123200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>123000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>123800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>75600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>83100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>20600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>38700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>834700</v>
+      </c>
+      <c r="E66" s="3">
         <v>459100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>363200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>407800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>602100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>380900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>331500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>355000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>634800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>467900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>514900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>497500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>633000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>511500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>431400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>542000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>712100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>561900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>617800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>711800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>784400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>573400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>553100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>647100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5026,7 +5193,7 @@
         <v>600</v>
       </c>
       <c r="G70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H70" s="3">
         <v>700</v>
@@ -5080,7 +5247,7 @@
         <v>700</v>
       </c>
       <c r="Y70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="Z70" s="3">
         <v>1300</v>
@@ -5088,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>658100</v>
+      </c>
+      <c r="E72" s="3">
         <v>641900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>636900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>630300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>611700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>600000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>585900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>571000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>498600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>480500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>459800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>438600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>413200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>408600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>409500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>418100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>404100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>395000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>403800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>401500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>407900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>409300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>401100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>400800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>567600</v>
+      </c>
+      <c r="E76" s="3">
         <v>572500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>583200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>593900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>585700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>586700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>577200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>502900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>431400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>414400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>393700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>434500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>412000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>413100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>416800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>419300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>409100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>401600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>410400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>421700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>428800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>432800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>423900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>405300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>72200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E83" s="3">
         <v>9800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>8000</v>
       </c>
       <c r="T83" s="3">
         <v>8000</v>
       </c>
       <c r="U83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="V83" s="3">
         <v>8400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>6600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>6200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-71600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>80100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>87000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-17800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>20400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>34000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>18700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-11800</v>
       </c>
       <c r="H94" s="3">
         <v>-11800</v>
       </c>
       <c r="I94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-30400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>58900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>12500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>54800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E100" s="3">
         <v>39400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-75700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-81100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-35000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-64500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>20600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-89400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>14500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>47100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-23900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>45700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>473300</v>
+      </c>
+      <c r="E8" s="3">
         <v>439800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>265200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>332400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>445600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>372300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>235000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>304800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>484400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>390300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>288200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>307900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>393000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>370000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>264900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>262600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>372200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>320700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>244100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>299700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>354900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>568800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>241200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>280700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>356800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>419500</v>
+      </c>
+      <c r="E9" s="3">
         <v>398100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>242400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>305800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>329500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>201400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>247800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>406700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>341400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>239600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>261500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>340700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>345900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>245800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>248800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>374300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>309700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>227300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>288500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>326100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>533700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>227700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>259600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>318800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E10" s="3">
         <v>41700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>45000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>77700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>48900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>48600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>46400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-2100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>16800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>28800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>38000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,70 +1223,73 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-35800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>300</v>
       </c>
       <c r="N14" s="3">
         <v>300</v>
       </c>
       <c r="O14" s="3">
+        <v>300</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>9900</v>
-      </c>
-      <c r="W14" s="3">
-        <v>100</v>
       </c>
       <c r="X14" s="3">
         <v>100</v>
@@ -1278,16 +1298,19 @@
         <v>100</v>
       </c>
       <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>443400</v>
       </c>
       <c r="E17" s="3">
+        <v>418000</v>
+      </c>
+      <c r="F17" s="3">
         <v>258600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>325300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>421900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>350400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>217300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>272300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>393800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>362600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>257900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>280800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>359900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>362600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>262000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>272200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>395900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>325500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>244100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>314400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>345400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>565900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>241900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>275900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>342400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>29900</v>
       </c>
       <c r="E18" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F18" s="3">
         <v>6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>90600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-23700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4800</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-14700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1616,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-700</v>
       </c>
       <c r="O20" s="3">
         <v>-700</v>
       </c>
       <c r="P20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>38100</v>
       </c>
       <c r="E21" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F21" s="3">
         <v>16500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>33700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>98200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-19500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-10700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>18500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1778,8 +1818,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>300</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1788,14 +1828,14 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E23" s="3">
         <v>21000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>90000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-26900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>12300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-6900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>21100</v>
       </c>
       <c r="E26" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F26" s="3">
         <v>5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>21000</v>
       </c>
       <c r="E27" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2326,11 +2387,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2338,15 +2399,15 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2354,28 +2415,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>34100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>14800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-6600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-1200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>700</v>
       </c>
       <c r="O32" s="3">
         <v>700</v>
       </c>
       <c r="P32" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>21000</v>
       </c>
       <c r="E33" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>21000</v>
       </c>
       <c r="E35" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E41" s="3">
         <v>12900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>59800</v>
       </c>
       <c r="J41" s="3">
         <v>59800</v>
       </c>
       <c r="K41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="L41" s="3">
         <v>14100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11500</v>
-      </c>
-      <c r="S41" s="3">
-        <v>12800</v>
       </c>
       <c r="T41" s="3">
         <v>12800</v>
       </c>
       <c r="U41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="V41" s="3">
         <v>12600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,328 +3258,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E43" s="3">
         <v>162500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>89300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>124000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>95300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>151600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>72100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>101500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>96600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>134800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>68900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>121800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>86700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>123400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>79600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>85300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>84300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>101300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>90100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>67400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>68500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>97800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>79700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>146600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>67400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>780500</v>
+      </c>
+      <c r="E44" s="3">
         <v>821300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>523400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>410300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>482000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>608200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>414700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>343100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>410900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>550700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>423800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>411600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>493100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>575200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>493500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>501700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>575900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>683900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>569300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>547000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>770700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>656300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>633500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>628900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>699400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>52300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>111700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>167500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>16200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>893800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1004900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>633900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>555400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>605200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>783300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>559900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>516300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>535800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>714500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>523900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>551600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>723900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>593700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>603200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>710000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>850200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>679300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>741100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>855100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>936500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>731900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>719100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>793200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,88 +3673,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>357600</v>
+      </c>
+      <c r="E48" s="3">
         <v>345000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>344500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>336900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>332600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>340300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>335800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>321400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>304000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>323900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>329100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>322800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>322000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>314600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>324200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>239300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>246000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>242400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>272000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>258500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>272400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>253700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>269800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>237500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>218000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E52" s="3">
         <v>53000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>53900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>54700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>64600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>64900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>72600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>29300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>29200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>23700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>21600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>42500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1304800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1402900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1032300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>947000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1002400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1188400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>968300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>909300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>858500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1066800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>883000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>909300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>932700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1045700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>925300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>848900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>962100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1121900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>964200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1028800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1134200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1213900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1006900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>978300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1053700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4318,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E57" s="3">
         <v>345200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>142200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>87600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>111300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>268900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>125600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>98800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>230100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>99600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>71200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>84300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>195700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>77600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>61000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>93600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>212100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>98500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>56800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>102000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>224100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>109800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>72800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>98200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E58" s="3">
         <v>22100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>69600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>320600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>18800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>12400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E59" s="3">
         <v>78200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>55700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>78100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>82100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>84800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>44600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>76700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>63000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>74400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>130300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>95900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>45700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>96400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>128200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E60" s="3">
         <v>445400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>216000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>173200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>199900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>372200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>201700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>158100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>188100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>380600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>177800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>149700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>173000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>286600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>151900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>112400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>468800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>295500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>180300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>138600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>242000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>327200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>164200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>177800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>238800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>334600</v>
+        <v>417300</v>
       </c>
       <c r="E61" s="3">
+        <v>334800</v>
+      </c>
+      <c r="F61" s="3">
         <v>185500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>129600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>145400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>166300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>116100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>113300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>114600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>131000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>167100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>241400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>252300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>270800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>276600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>297200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>384300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>351700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>442100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>449200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>424100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>384300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>363300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>369600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E62" s="3">
         <v>54500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>57700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>60500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>60100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>123200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>123000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>123800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>83100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>20600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>25000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>38700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>719800</v>
+      </c>
+      <c r="E66" s="3">
         <v>834700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>459100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>363200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>407800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>602100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>380900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>331500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>355000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>634800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>467900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>514900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>497500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>633000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>511500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>431400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>542000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>712100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>561900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>617800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>711800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>784400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>573400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>553100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>647100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5196,7 +5364,7 @@
         <v>600</v>
       </c>
       <c r="H70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I70" s="3">
         <v>700</v>
@@ -5250,7 +5418,7 @@
         <v>700</v>
       </c>
       <c r="Z70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="AA70" s="3">
         <v>1300</v>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>679100</v>
+      </c>
+      <c r="E72" s="3">
         <v>658100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>641900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>636900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>630300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>611700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>600000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>585900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>571000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>498600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>480500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>459800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>438600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>413200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>408600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>409500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>418100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>404100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>395000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>403800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>401500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>407900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>409300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>401100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>400800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>584500</v>
+      </c>
+      <c r="E76" s="3">
         <v>567600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>572500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>583200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>593900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>585700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>586700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>577200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>502900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>431400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>414400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>393700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>434500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>412000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>413100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>416800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>419300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>409100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>401600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>410400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>421700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>428800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>432800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>423900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>405300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>21000</v>
       </c>
       <c r="E81" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E83" s="3">
         <v>10100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>8000</v>
       </c>
       <c r="U83" s="3">
         <v>8000</v>
       </c>
       <c r="V83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="W83" s="3">
         <v>8400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>6600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>6200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-110800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-71600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>80100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-20200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>20400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>34000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>18700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-11800</v>
       </c>
       <c r="I94" s="3">
         <v>-11800</v>
       </c>
       <c r="J94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-30400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>58900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>12500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>54800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E100" s="3">
         <v>126000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>39400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>34800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-75700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-81100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-35000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-32400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-64500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-34400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>20600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-89400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>14500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>47100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-23900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-9800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>45700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,398 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>298700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1509400</v>
+      </c>
+      <c r="F8" s="3">
         <v>473300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>439800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>265200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>332400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>445600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>372300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>235000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>304800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>484400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>390300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>288200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>307900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>393000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>370000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>264900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>262600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>372200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>320700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>244100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>299700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>354900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>568800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>241200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>280700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>356800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>243400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1373500</v>
+      </c>
+      <c r="F9" s="3">
         <v>419500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>398100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>242400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>305800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>400600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>329500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>201400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>247800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>406700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>341400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>239600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>261500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>340700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>345900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>245800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>248800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>374300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>309700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>227300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>288500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>326100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>533700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>227700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>259600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>318800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>135900</v>
+      </c>
+      <c r="F10" s="3">
         <v>53800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>41700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>26600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>45000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>42800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>33600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>57000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>77700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>48900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>48600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>46400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>52300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>24100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>19100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>13800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-2100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>11000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>16800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>11200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>28800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>35100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>13500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>21100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>38000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1086,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1171,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,91 +1260,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-2500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-35800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>4800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>9400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>9900</v>
-      </c>
-      <c r="X14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>100</v>
       </c>
       <c r="Z14" s="3">
         <v>100</v>
       </c>
       <c r="AA14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>1300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1438,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1472,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>263200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1456400</v>
+      </c>
+      <c r="F17" s="3">
         <v>443400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>418000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>258600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>325300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>421900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>350400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>217300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>272300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>393800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>362600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>257900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>280800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>359900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>362600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>262000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>272200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>395900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>325500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>244100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>314400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>345400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>565900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>241900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>275900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>342400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F18" s="3">
         <v>29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>21800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>23700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>21900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>17700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>32500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>90600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>27700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>30300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>27100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>33100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-9600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-23700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-4800</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-14700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>9500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>4800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>14400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,197 +1683,211 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-13300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-4400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>86300</v>
+      </c>
+      <c r="F21" s="3">
         <v>38100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>31000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>16500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>17500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>33700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>24300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>27200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>27300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>98200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>31900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>34900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>34700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>40300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>13700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>9100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-19500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>5200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-10700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>15400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>15700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>5800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>8500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>18500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1821,27 +1901,27 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1866,174 +1946,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F23" s="3">
         <v>27600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>21000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>24400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>15200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>18600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>19300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>90000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>23700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>27000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>26100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>32100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-11800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-26900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-7700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-19100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>7600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>1900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>12300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F24" s="3">
         <v>6500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>17500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-3200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-6900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-3500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>4500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2213,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F26" s="3">
         <v>21100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>16100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>18700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>11700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>14100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>14800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>72500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>18100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>24400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-8600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-20000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-15700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>8900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>7800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F27" s="3">
         <v>21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>16100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>18600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>11600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>14100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>14800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>72200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>20600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>20900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>24300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-8600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-20000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-15600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>8800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>7700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,91 +2480,103 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>34100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>14800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-6600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>1400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2658,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2747,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>13300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>4400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>2900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>2100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F33" s="3">
         <v>21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>16100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>18600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>11600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>14100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>14800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>72200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>20600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>21100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>25300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-8600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>14100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>9100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-8800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-14200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>7700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>7700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3014,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F35" s="3">
         <v>21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>16100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>18600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>11600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>14100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>14800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>72200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>20600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>21100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>25300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-8600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>14100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>9100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-8800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-14200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>7700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>7700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3234,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3267,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F41" s="3">
         <v>12500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>12900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>59800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>59800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>17600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>16900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>11500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>12800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>12800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>12600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>15100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>13100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>14900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>15800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>12000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>10300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,340 +3441,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>104100</v>
+      </c>
+      <c r="F43" s="3">
         <v>94900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>162500</v>
       </c>
-      <c r="F43" s="3">
-        <v>89300</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>90900</v>
+      </c>
+      <c r="I43" s="3">
         <v>124000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>95300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>151600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>72100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>101500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>96600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>134800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>68900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>121800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>86700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>123400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>79600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>85300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>84300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>101300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>90100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>67400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>68500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>97800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>79700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>146600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>67400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>735100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>141800</v>
+      </c>
+      <c r="F44" s="3">
         <v>780500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>821300</v>
       </c>
-      <c r="F44" s="3">
-        <v>523400</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>517100</v>
+      </c>
+      <c r="I44" s="3">
         <v>410300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>482000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>608200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>414700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>343100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>410900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>550700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>423800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>411600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>493100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>575200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>493500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>501700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>575900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>683900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>569300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>547000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>770700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>656300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>633500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>628900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>699400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>12300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>36900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>52300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>7200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>111700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>167500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>2900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>3700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>16200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>837900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>794000</v>
+      </c>
+      <c r="F46" s="3">
         <v>893800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1004900</v>
       </c>
-      <c r="F46" s="3">
-        <v>633900</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>629100</v>
+      </c>
+      <c r="I46" s="3">
         <v>555400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>605200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>783300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>559900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>516300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>535800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>714500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>523900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>551600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>723900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>593700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>603200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>710000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>850200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>679300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>741100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>855100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>936500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>731900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>719100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>793200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,91 +3886,103 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>358500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>358000</v>
+      </c>
+      <c r="F48" s="3">
         <v>357600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>345000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>344500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>336900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>332600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>340300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>335800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>321400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>304000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>323900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>329100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>322800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>322000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>314600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>324200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>239300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>246000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>242400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>272000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>258500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>272400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>253700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>269800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>237500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>218000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +4064,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4153,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4242,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F52" s="3">
         <v>53500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>53000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>53900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>54700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>64600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>64900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>72600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>71700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>18700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>28400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>30000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>34900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>10700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>7200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>7400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>6400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>6000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>29300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>12900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>29200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>6800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>23700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>5300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>21600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>42500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4420,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1256600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1212700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1304800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1402900</v>
       </c>
-      <c r="F54" s="3">
-        <v>1032300</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>1027500</v>
+      </c>
+      <c r="I54" s="3">
         <v>947000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1002400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1188400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>968300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>909300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>858500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1066800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>883000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>909300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>932700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1045700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>925300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>848900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>962100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1121900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>964200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1028800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1134200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1213900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1006900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>978300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1053700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4546,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4579,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>69200</v>
+      </c>
+      <c r="F57" s="3">
         <v>156100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>345200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>142200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>87600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>111300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>268900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>125600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>74100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>98800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>230100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>99600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>71200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>84300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>195700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>77600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>61000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>93600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>212100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>98500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>56800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>102000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>224100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>109800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>72800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>98200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F58" s="3">
         <v>21300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>22100</v>
       </c>
-      <c r="F58" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I58" s="3">
         <v>26000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>12400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>12300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>11700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>28300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>11100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>69600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>28300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>6700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>6800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>320600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>6600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>18800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>7500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>9700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>7200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>8700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>8500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>12400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>63200</v>
+      </c>
+      <c r="F59" s="3">
         <v>69500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>78200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>48700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>59500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>76200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>91000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>64400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>55700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>78100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>80900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>71500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>50200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>82100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>84800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>67600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>44600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>54600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>76700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>63000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>74400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>130300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>95900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>45700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>96400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>128200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>156200</v>
+      </c>
+      <c r="F60" s="3">
         <v>246900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>445400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>216000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>173200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>199900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>372200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>201700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>158100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>188100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>380600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>177800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>149700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>173000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>286600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>151900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>112400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>468800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>295500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>180300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>138600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>242000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>327200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>164200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>177800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>238800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>430400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>450000</v>
+      </c>
+      <c r="F61" s="3">
         <v>417300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>334800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>185500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>129600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>145400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>166300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>116100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>113300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>114600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>131000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>167100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>241400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>252300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>270800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>276600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>297200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>40400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>384300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>351700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>442100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>449200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>424100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>384300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>363300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>369600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F62" s="3">
         <v>55500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>54500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>57700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>60500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>62500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>63600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>63100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>60100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>52300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>123200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>123000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>123800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>72100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>75600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>83100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>21800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>32800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>32300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>29800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>37100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>20600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>33100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>25000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>16100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>38700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5198,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5287,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5376,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>680800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>658000</v>
+      </c>
+      <c r="F66" s="3">
         <v>719800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>834700</v>
       </c>
-      <c r="F66" s="3">
-        <v>459100</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
+        <v>459200</v>
+      </c>
+      <c r="I66" s="3">
         <v>363200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>407800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>602100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>380900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>331500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>355000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>634800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>467900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>514900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>497500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>633000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>511500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>431400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>542000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>712100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>561900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>617800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>711800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>784400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>573400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>553100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>647100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5502,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5587,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,16 +5676,22 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E70" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F70" s="3">
         <v>600</v>
@@ -5367,10 +5703,10 @@
         <v>600</v>
       </c>
       <c r="I70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K70" s="3">
         <v>700</v>
@@ -5421,16 +5757,22 @@
         <v>700</v>
       </c>
       <c r="AA70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="AB70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="AC70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5854,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>664400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>641300</v>
+      </c>
+      <c r="F72" s="3">
         <v>679100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>658100</v>
       </c>
-      <c r="F72" s="3">
-        <v>641900</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
+        <v>637100</v>
+      </c>
+      <c r="I72" s="3">
         <v>636900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>630300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>611700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>600000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>585900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>571000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>498600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>480500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>459800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>438600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>413200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>408600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>409500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>418100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>404100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>395000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>403800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>401500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>407900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>409300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>401100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>400800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6032,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6121,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6210,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>575500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>554400</v>
+      </c>
+      <c r="F76" s="3">
         <v>584500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>567600</v>
       </c>
-      <c r="F76" s="3">
-        <v>572500</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>567700</v>
+      </c>
+      <c r="I76" s="3">
         <v>583200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>593900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>585700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>586700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>577200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>502900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>431400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>414400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>393700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>434500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>412000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>413100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>416800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>419300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>409100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>401600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>410400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>421700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>428800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>432800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>423900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>405300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6388,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F81" s="3">
         <v>21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>16100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>18600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>11600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>14100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>14800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>72200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>20600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>21100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>25300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-8600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>14100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>9100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-8800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-14200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>7700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>7700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6608,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F83" s="3">
         <v>10500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>10100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>9100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8300</v>
       </c>
       <c r="P83" s="3">
         <v>7900</v>
       </c>
       <c r="Q83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="R83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>8000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>8000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>8400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>7800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>15300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>7700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>6600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>6200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6782,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6871,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6960,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7049,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7138,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-212800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-55900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-110800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-22800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>41200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>38900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-71600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>80100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-13300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>100300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>12000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>50700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>26800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>37800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>50700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-20300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-20200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>87000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>13600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-17800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>20400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>34000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>18700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7264,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-22600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-14600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-19200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-16900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-13200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-31300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-12800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-18000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-9800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-7300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-10200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-9900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-10500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-11500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7438,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7527,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-21700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-14500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-15300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-11800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-30400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>58900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-18300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-17700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>12500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>54800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-11300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-21400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7653,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7738,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7827,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7916,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +8005,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F100" s="3">
         <v>77200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>126000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>39400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-27800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-31100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>34800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-9800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-75700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>24500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-81100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-32400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-20000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-64500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-34400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>20600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-89400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>14500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>47100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>4700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-23900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-9800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +8183,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-48600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>45700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>5400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>2900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>3800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SENEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SENEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>407500</v>
+      </c>
+      <c r="E8" s="3">
         <v>298700</v>
       </c>
-      <c r="E8" s="3">
-        <v>1509400</v>
-      </c>
       <c r="F8" s="3">
+        <v>331100</v>
+      </c>
+      <c r="G8" s="3">
         <v>473300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>439800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>265200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>332400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>445600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>372300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>235000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>304800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>484400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>390300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>288200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>307900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>393000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>370000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>264900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>262600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>372200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>320700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>244100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>299700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>354900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>568800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>241200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>280700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>356800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>352600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>349400</v>
+      </c>
+      <c r="E9" s="3">
         <v>243400</v>
       </c>
-      <c r="E9" s="3">
-        <v>1373500</v>
-      </c>
       <c r="F9" s="3">
+        <v>345200</v>
+      </c>
+      <c r="G9" s="3">
         <v>419500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>398100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>242400</v>
       </c>
-      <c r="I9" s="3">
-        <v>305800</v>
-      </c>
       <c r="J9" s="3">
+        <v>312100</v>
+      </c>
+      <c r="K9" s="3">
         <v>400600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>329500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>201400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>247800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>406700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>341400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>239600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>261500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>340700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>345900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>245800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>248800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>374300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>309700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>227300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>288500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>326100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>533700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>227700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>259600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>318800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>321600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E10" s="3">
         <v>55300</v>
       </c>
-      <c r="E10" s="3">
-        <v>135900</v>
-      </c>
       <c r="F10" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G10" s="3">
         <v>53800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22900</v>
       </c>
-      <c r="I10" s="3">
-        <v>26600</v>
-      </c>
       <c r="J10" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K10" s="3">
         <v>45000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>77700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>48900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>48600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>46400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-2100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>16800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>28800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>35100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>13500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>21100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>38000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,79 +1283,82 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>3600</v>
-      </c>
       <c r="F14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G14" s="3">
         <v>1800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-35800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
-      </c>
-      <c r="P14" s="3">
-        <v>300</v>
       </c>
       <c r="Q14" s="3">
         <v>300</v>
       </c>
       <c r="R14" s="3">
+        <v>300</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>9900</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>100</v>
       </c>
       <c r="AA14" s="3">
         <v>100</v>
@@ -1347,16 +1367,19 @@
         <v>100</v>
       </c>
       <c r="AC14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-900</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1300</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>369100</v>
+      </c>
+      <c r="E17" s="3">
         <v>263200</v>
       </c>
-      <c r="E17" s="3">
-        <v>1456400</v>
-      </c>
       <c r="F17" s="3">
+        <v>368000</v>
+      </c>
+      <c r="G17" s="3">
         <v>443400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>418000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>258600</v>
       </c>
-      <c r="I17" s="3">
-        <v>325300</v>
-      </c>
       <c r="J17" s="3">
+        <v>331600</v>
+      </c>
+      <c r="K17" s="3">
         <v>421900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>350400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>217300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>272300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>393800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>362600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>257900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>280800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>359900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>362600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>262000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>272200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>395900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>325500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>244100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>314400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>345400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>565900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>241900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>275900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>342400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>340600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E18" s="3">
         <v>35500</v>
       </c>
-      <c r="E18" s="3">
-        <v>53000</v>
-      </c>
       <c r="F18" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="G18" s="3">
         <v>29900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6600</v>
       </c>
-      <c r="I18" s="3">
-        <v>7100</v>
-      </c>
       <c r="J18" s="3">
+        <v>800</v>
+      </c>
+      <c r="K18" s="3">
         <v>23700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>27100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-23700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4800</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-14700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>9500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>4800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>14400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,186 +1718,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-7600</v>
-      </c>
       <c r="F20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-700</v>
       </c>
       <c r="R20" s="3">
         <v>-700</v>
       </c>
       <c r="S20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E21" s="3">
         <v>40900</v>
       </c>
-      <c r="E21" s="3">
-        <v>86300</v>
-      </c>
       <c r="F21" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="G21" s="3">
         <v>38100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16500</v>
       </c>
-      <c r="I21" s="3">
-        <v>17500</v>
-      </c>
       <c r="J21" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K21" s="3">
         <v>33700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>98200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-19500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>15400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>15700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>8500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>18500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1889,8 +1929,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1907,8 +1947,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>300</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1917,14 +1957,14 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1952,186 +1992,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E23" s="3">
         <v>30300</v>
       </c>
-      <c r="E23" s="3">
-        <v>45400</v>
-      </c>
       <c r="F23" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="G23" s="3">
         <v>27600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6700</v>
       </c>
-      <c r="I23" s="3">
-        <v>8000</v>
-      </c>
       <c r="J23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K23" s="3">
         <v>24400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>90000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-26900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>12300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
         <v>7200</v>
       </c>
-      <c r="E24" s="3">
-        <v>12200</v>
-      </c>
       <c r="F24" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G24" s="3">
         <v>6500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
-        <v>1500</v>
-      </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-6900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>4500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E26" s="3">
         <v>23100</v>
       </c>
-      <c r="E26" s="3">
-        <v>33100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="G26" s="3">
         <v>21100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5100</v>
       </c>
-      <c r="I26" s="3">
-        <v>6600</v>
-      </c>
       <c r="J26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K26" s="3">
         <v>18700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-15700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>8900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>7800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E27" s="3">
         <v>23100</v>
       </c>
-      <c r="E27" s="3">
-        <v>33000</v>
-      </c>
       <c r="F27" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="G27" s="3">
         <v>21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5100</v>
       </c>
-      <c r="I27" s="3">
-        <v>6500</v>
-      </c>
       <c r="J27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K27" s="3">
         <v>18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>7700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2512,17 +2573,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2530,15 +2591,15 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2546,28 +2607,28 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>34100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>14800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-200</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD29" s="3" t="s">
         <v>8</v>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
-        <v>7600</v>
-      </c>
       <c r="F32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>700</v>
       </c>
       <c r="R32" s="3">
         <v>700</v>
       </c>
       <c r="S32" s="3">
+        <v>700</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E33" s="3">
         <v>23100</v>
       </c>
-      <c r="E33" s="3">
-        <v>33000</v>
-      </c>
       <c r="F33" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="G33" s="3">
         <v>21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5100</v>
       </c>
-      <c r="I33" s="3">
-        <v>6500</v>
-      </c>
       <c r="J33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K33" s="3">
         <v>18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>7700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E35" s="3">
         <v>23100</v>
       </c>
-      <c r="E35" s="3">
-        <v>33000</v>
-      </c>
       <c r="F35" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="G35" s="3">
         <v>21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5100</v>
       </c>
-      <c r="I35" s="3">
-        <v>6500</v>
-      </c>
       <c r="J35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K35" s="3">
         <v>18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>7700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,97 +3355,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="E41" s="3">
         <v>12300</v>
       </c>
       <c r="F41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G41" s="3">
         <v>12500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>59800</v>
       </c>
       <c r="M41" s="3">
         <v>59800</v>
       </c>
       <c r="N41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="O41" s="3">
         <v>14100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11500</v>
-      </c>
-      <c r="V41" s="3">
-        <v>12800</v>
       </c>
       <c r="W41" s="3">
         <v>12800</v>
       </c>
       <c r="X41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="Y41" s="3">
         <v>12600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>14900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>12000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>10300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3447,364 +3537,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E43" s="3">
         <v>85000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>104100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>162500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>90900</v>
       </c>
-      <c r="I43" s="3">
-        <v>124000</v>
-      </c>
       <c r="J43" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K43" s="3">
         <v>95300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>151600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>101500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>96600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>134800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>68900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>121800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>86700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>123400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>79600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>85300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>84300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>101300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>90100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>67400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>68500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>97800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>79700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>146600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>67400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>102700</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1013400</v>
+      </c>
+      <c r="E44" s="3">
         <v>735100</v>
       </c>
-      <c r="E44" s="3">
-        <v>141800</v>
-      </c>
       <c r="F44" s="3">
+        <v>670900</v>
+      </c>
+      <c r="G44" s="3">
         <v>780500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>821300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>517100</v>
       </c>
-      <c r="I44" s="3">
-        <v>410300</v>
-      </c>
       <c r="J44" s="3">
+        <v>404000</v>
+      </c>
+      <c r="K44" s="3">
         <v>482000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>608200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>414700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>343100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>410900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>550700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>423800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>411600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>493100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>575200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>493500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>501700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>575900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>683900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>569300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>547000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>770700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>656300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>633500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>628900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>699400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3">
-        <v>10200</v>
-      </c>
       <c r="J45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K45" s="3">
         <v>16900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>36900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>52300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>111700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>167500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>16200</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1157500</v>
+      </c>
+      <c r="E46" s="3">
         <v>837900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>794000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>893800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1004900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>629100</v>
       </c>
-      <c r="I46" s="3">
-        <v>555400</v>
-      </c>
       <c r="J46" s="3">
+        <v>550700</v>
+      </c>
+      <c r="K46" s="3">
         <v>605200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>783300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>559900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>516300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>535800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>714500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>523900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>551600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>723900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>593700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>603200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>710000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>850200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>679300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>741100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>855100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>936500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>731900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>719100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>793200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>934700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3892,97 +3997,103 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>354600</v>
+      </c>
+      <c r="E48" s="3">
         <v>358500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>358000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>357600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>345000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>344500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>336900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>332600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>340300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>335800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>321400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>304000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>323900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>329100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>322800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>322000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>314600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>324200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>239300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>246000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>242400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>272000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>258500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>272400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>253700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>269800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>237500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>218000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>207500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4070,8 +4181,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E52" s="3">
         <v>60200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>60700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>53900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>64600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>72600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>29300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>29200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>23700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>21600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>42500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1571700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1256600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1212700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1304800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1402900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1027500</v>
       </c>
-      <c r="I54" s="3">
-        <v>947000</v>
-      </c>
       <c r="J54" s="3">
+        <v>942300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1002400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1188400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>968300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>909300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>858500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1066800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>883000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>909300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>932700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1045700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>925300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>848900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>962100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1121900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>964200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1028800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1134200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1213900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1006900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>978300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1053700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1185200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,542 +4711,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>321600</v>
+      </c>
+      <c r="E57" s="3">
         <v>117700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>156100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>345200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>142200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>87600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>111300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>268900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>125600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>74100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>98800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>230100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>99600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>71200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>84300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>195700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>77600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>61000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>93600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>212100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>98500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>56800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>102000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>224100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>109800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>72800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>98200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E58" s="3">
         <v>32600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>51600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>50000</v>
       </c>
-      <c r="I58" s="3">
-        <v>26000</v>
-      </c>
       <c r="J58" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K58" s="3">
         <v>12400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>69600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>28300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>320600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>18800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>12400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E59" s="3">
         <v>49900</v>
       </c>
-      <c r="E59" s="3">
-        <v>63200</v>
-      </c>
       <c r="F59" s="3">
+        <v>61200</v>
+      </c>
+      <c r="G59" s="3">
         <v>69500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>78200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>78100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>82100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>84800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>67600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>44600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>54600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>76700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>63000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>74400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>130300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>95900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>45700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>96400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>128200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>432800</v>
+      </c>
+      <c r="E60" s="3">
         <v>200200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>156200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>246900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>445400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>216000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>173200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>199900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>372200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>201700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>158100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>188100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>380600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>177800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>149700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>173000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>286600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>151900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>112400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>468800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>295500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>180300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>138600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>242000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>327200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>164200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>177800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>238800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>359600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>506900</v>
+      </c>
+      <c r="E61" s="3">
         <v>430400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>450000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>417300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>334800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>185500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>129600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>145400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>166300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>116100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>113300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>114600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>131000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>167100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>241400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>252300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>270800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>276600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>297200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>40400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>384300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>351700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>442100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>449200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>424100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>384300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>363300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>369600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>373300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E62" s="3">
         <v>50200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>54500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>57700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>60500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>62500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>60100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>123200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>123000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>123800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>75600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>83100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>32800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>32300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>37100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>20600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>33100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>25000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>16100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>38700</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>988500</v>
+      </c>
+      <c r="E66" s="3">
         <v>680800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>658000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>719800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>834700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>459200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>363200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>407800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>602100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>380900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>331500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>355000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>634800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>467900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>514900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>497500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>633000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>511500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>431400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>542000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>712100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>561900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>617800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>711800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>784400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>573400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>553100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>647100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>785600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5694,7 +5862,7 @@
         <v>400</v>
       </c>
       <c r="F70" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G70" s="3">
         <v>600</v>
@@ -5709,7 +5877,7 @@
         <v>600</v>
       </c>
       <c r="K70" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L70" s="3">
         <v>700</v>
@@ -5763,7 +5931,7 @@
         <v>700</v>
       </c>
       <c r="AC70" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="AD70" s="3">
         <v>1300</v>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>689100</v>
+      </c>
+      <c r="E72" s="3">
         <v>664400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>641300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>679100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>658100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>637100</v>
       </c>
-      <c r="I72" s="3">
-        <v>636900</v>
-      </c>
       <c r="J72" s="3">
+        <v>632100</v>
+      </c>
+      <c r="K72" s="3">
         <v>630300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>611700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>600000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>585900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>571000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>498600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>480500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>459800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>438600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>413200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>408600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>409500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>418100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>404100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>395000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>403800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>401500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>407900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>409300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>401100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>400800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>582900</v>
+      </c>
+      <c r="E76" s="3">
         <v>575500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>554400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>584500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>567600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>567700</v>
       </c>
-      <c r="I76" s="3">
-        <v>583200</v>
-      </c>
       <c r="J76" s="3">
+        <v>578400</v>
+      </c>
+      <c r="K76" s="3">
         <v>593900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>585700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>586700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>577200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>502900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>431400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>414400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>393700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>434500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>412000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>413100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>416800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>419300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>409100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>401600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>410400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>421700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>428800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>432800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>423900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>405300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>398300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E81" s="3">
         <v>23100</v>
       </c>
-      <c r="E81" s="3">
-        <v>33000</v>
-      </c>
       <c r="F81" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="G81" s="3">
         <v>21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5100</v>
       </c>
-      <c r="I81" s="3">
-        <v>6500</v>
-      </c>
       <c r="J81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K81" s="3">
         <v>18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>7700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,97 +6808,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E83" s="3">
         <v>10700</v>
       </c>
-      <c r="E83" s="3">
-        <v>40900</v>
-      </c>
       <c r="F83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G83" s="3">
         <v>10500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>8000</v>
       </c>
       <c r="X83" s="3">
         <v>8000</v>
       </c>
       <c r="Y83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>8400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>7700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>6600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>6200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E89" s="3">
         <v>25000</v>
       </c>
-      <c r="E89" s="3">
-        <v>-212800</v>
-      </c>
       <c r="F89" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-55900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-110800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-71600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>80100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>50700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-20300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-20200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>87000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-17800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>20400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>34000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>18700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-13700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-17500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-64900</v>
-      </c>
       <c r="F94" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-21700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-11800</v>
       </c>
       <c r="L94" s="3">
         <v>-11800</v>
       </c>
       <c r="M94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="N94" s="3">
         <v>-30400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>58900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>12500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>54800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-26400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-21400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-8400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7744,8 +7978,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,97 +8254,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13300</v>
       </c>
-      <c r="E100" s="3">
-        <v>279000</v>
-      </c>
       <c r="F100" s="3">
+        <v>36400</v>
+      </c>
+      <c r="G100" s="3">
         <v>77200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>126000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>39400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>34800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-75700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-81100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-35000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-32400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-64500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-34400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>20600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-89400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>14500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>47100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>4700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-23900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-9800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,93 +8438,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>45700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-2400</v>
       </c>
     </row>
